--- a/sheets/SuiteA.xlsx
+++ b/sheets/SuiteA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">SuiteA</t>
+    <t xml:space="preserve">TestB</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -45,9 +45,6 @@
     <t xml:space="preserve">TestC</t>
   </si>
   <si>
-    <t xml:space="preserve">TestD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t xml:space="preserve">Browser</t>
   </si>
   <si>
-    <t xml:space="preserve">LoginTest</t>
-  </si>
-  <si>
     <t xml:space="preserve">navigate</t>
   </si>
   <si>
@@ -108,30 +102,27 @@
     <t xml:space="preserve">validateLogin</t>
   </si>
   <si>
-    <t xml:space="preserve">TestB</t>
-  </si>
-  <si>
     <t xml:space="preserve">defaultLogin</t>
   </si>
   <si>
     <t xml:space="preserve">ExpectedResult</t>
   </si>
   <si>
+    <t xml:space="preserve">Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginSuccess</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mozilla</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginSuccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome</t>
-  </si>
-  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t xml:space="preserve">Col3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuiteC</t>
   </si>
 </sst>
 </file>
@@ -300,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,10 +318,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,11 +400,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
@@ -458,14 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -485,10 +462,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -502,167 +479,167 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -683,13 +660,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
@@ -706,16 +683,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,16 +700,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,16 +717,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,21 +734,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,12 +779,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
@@ -817,13 +796,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,91 +810,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
